--- a/files/parciante.xlsx
+++ b/files/parciante.xlsx
@@ -5,20 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Ciclo II 2022\Sistemas Contables\Parcial\Webbu no jutsu\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MINEDUCYT\Documents\estudio ues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106E82D-8ADA-443F-B241-FC5D479DD3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14619EE5-04E6-4E66-BA8E-DF6B6D8C2CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="libro" sheetId="3" r:id="rId1"/>
     <sheet name="primer ejercicio parcial" sheetId="4" r:id="rId2"/>
     <sheet name="balance" sheetId="7" r:id="rId3"/>
-    <sheet name="cierre contable" sheetId="9" r:id="rId4"/>
+    <sheet name="cierre contable Analitico" sheetId="9" r:id="rId4"/>
+    <sheet name="mano de obra" sheetId="10" r:id="rId5"/>
+    <sheet name="costo de materiales" sheetId="12" r:id="rId6"/>
+    <sheet name="CIFF" sheetId="13" r:id="rId7"/>
+    <sheet name="Ajuste de cuentas" sheetId="14" r:id="rId8"/>
+    <sheet name="hoja de trabajo" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +43,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={009E9BDE-147A-4C71-9F6E-0F5EDE457D73}</author>
+  </authors>
+  <commentList>
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{FFC0978C-9C52-4287-8075-1753706C2D4E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Esta cantidad se omite en los valores de ajustes porque se toma los $800 del balance de comprobación proporcionado para saldar. Este valor se presentará en el balance de comprobación ajustado
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="159">
   <si>
     <t>Partida</t>
   </si>
@@ -273,13 +309,256 @@
   </si>
   <si>
     <t xml:space="preserve">utilidad bruta= </t>
+  </si>
+  <si>
+    <t>AFP</t>
+  </si>
+  <si>
+    <t>Salarios y Prestaciones</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Total semanal</t>
+  </si>
+  <si>
+    <t>Séptimo</t>
+  </si>
+  <si>
+    <t>Aguinaldo</t>
+  </si>
+  <si>
+    <t>Vacaciones</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Costo real semanal</t>
+  </si>
+  <si>
+    <t>Costo real por día</t>
+  </si>
+  <si>
+    <t>Costo real por hora</t>
+  </si>
+  <si>
+    <t>Factor de recargo por hora</t>
+  </si>
+  <si>
+    <t>Factor de recargo por hora con eficiencia</t>
+  </si>
+  <si>
+    <t>Factor de recargo por dia</t>
+  </si>
+  <si>
+    <t>Factor de recargo por dia con eficiencia</t>
+  </si>
+  <si>
+    <t>7 días por $12</t>
+  </si>
+  <si>
+    <t>(25 días por $12) entre 52</t>
+  </si>
+  <si>
+    <t>((25 días por $12) + 31,5% recargo) entre 52</t>
+  </si>
+  <si>
+    <t>($84 más $7.59) por 0.075</t>
+  </si>
+  <si>
+    <t>ojo si se tiene mas de 10 empleados se calculara el insaforp</t>
+  </si>
+  <si>
+    <t>(salario semanas + pago de vacaciones semanales) x porcentaje (0.01) o el que indique el ejercicio</t>
+  </si>
+  <si>
+    <t>($84 más $7.59) por 0.0775</t>
+  </si>
+  <si>
+    <t>si tomamos en cuenta las cotizaciones de ley en vacaciones se debe hacer los siguiente</t>
+  </si>
+  <si>
+    <t>(dias de vacaciones* salario diario)(% de recargo)(% de iss)(% de afp)/52</t>
+  </si>
+  <si>
+    <t>A) De cuánto será el valor del inventario final si se mantiene un registro de inventario perpetuo
+para el material sobre la base PEPS.</t>
+  </si>
+  <si>
+    <t>Recibido</t>
+  </si>
+  <si>
+    <t>Vendido</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>B) De cuánto será el valor del inventario final si se mantiene un registro de inventario perpetuo
+para el material sobre la base UEPS.</t>
+  </si>
+  <si>
+    <t>C) De cuánto será el valor del inventario final si se mantiene un registro de inventario perpetuo
+para el material sobre la base PROMEDIO.</t>
+  </si>
+  <si>
+    <t>CUENTAS CIFF</t>
+  </si>
+  <si>
+    <t>salario de supervisores</t>
+  </si>
+  <si>
+    <t>herramients y abastimiento</t>
+  </si>
+  <si>
+    <t>Horas MOD</t>
+  </si>
+  <si>
+    <t>Depreciacion de equipo</t>
+  </si>
+  <si>
+    <t>Costo estimado</t>
+  </si>
+  <si>
+    <t>Renta de fabrica</t>
+  </si>
+  <si>
+    <t>Accsesorio de maquina</t>
+  </si>
+  <si>
+    <t>Reparacion y mantenimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>tasa en base a horas</t>
+  </si>
+  <si>
+    <t>tasa en base a costos</t>
+  </si>
+  <si>
+    <t>CONTA S.A. DE C.V.                                                                                 BALANCE DE COMPROBACIÓN                                                                                        Del  1 al 30 del mes 20XX</t>
+  </si>
+  <si>
+    <t>Nombre de cuentas</t>
+  </si>
+  <si>
+    <t>Interes por pagar</t>
+  </si>
+  <si>
+    <t>Gastos por intereses</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>A1)</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Gastos por seguro</t>
+  </si>
+  <si>
+    <t>Seguros pagados por anticipado</t>
+  </si>
+  <si>
+    <t>A2)</t>
+  </si>
+  <si>
+    <t>Mobiliario</t>
+  </si>
+  <si>
+    <t>Locales</t>
+  </si>
+  <si>
+    <t>IVA crédito fiscal</t>
+  </si>
+  <si>
+    <t>Depreciación acumulada mobiliario</t>
+  </si>
+  <si>
+    <t>Gastos por depreciación de mobiliario</t>
+  </si>
+  <si>
+    <t>IVA débito fiscal</t>
+  </si>
+  <si>
+    <t>A3)</t>
+  </si>
+  <si>
+    <t>Documento por pagar</t>
+  </si>
+  <si>
+    <t>Saldo deudor</t>
+  </si>
+  <si>
+    <t>Ingresos por ventas</t>
+  </si>
+  <si>
+    <t>Costo de lo vendido</t>
+  </si>
+  <si>
+    <t>Gastos por servicios básicos</t>
+  </si>
+  <si>
+    <t>Gastos por salarios</t>
+  </si>
+  <si>
+    <t>Gastos por descuentos aprobados</t>
+  </si>
+  <si>
+    <t>Gastos personales</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTA S.A. DE C.V. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOJA DE TRABAJO  </t>
+  </si>
+  <si>
+    <t>Del  1 al 30 del mes 20XX</t>
+  </si>
+  <si>
+    <t>Balance de comprobación</t>
+  </si>
+  <si>
+    <t>Ajustes</t>
+  </si>
+  <si>
+    <t>Estados de resultado</t>
+  </si>
+  <si>
+    <t>Estado de capital</t>
+  </si>
+  <si>
+    <t>Balance general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilidad </t>
+  </si>
+  <si>
+    <t>Capital social</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -287,8 +566,10 @@
     <numFmt numFmtId="167" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="[$$-440A]#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +612,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,8 +724,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -981,13 +1306,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1147,6 +1609,273 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="19" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="21" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1159,24 +1888,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1186,59 +1897,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1246,6 +1918,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1255,45 +1954,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1303,6 +1963,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,15 +1985,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1333,6 +1993,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -1361,28 +2165,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>671945</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>156729</xdr:rowOff>
+      <xdr:colOff>216730</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Imagen">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2337932-7ABE-87AA-765E-E9A71F8AD6E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1393,15 +2197,306 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19169062" y="595312"/>
+          <a:ext cx="10411457" cy="4271367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>744142</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>178595</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19154181" y="4881563"/>
+          <a:ext cx="10388203" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>207765</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>132159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19169063" y="7307461"/>
+          <a:ext cx="5848350" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>287536</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>126802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25047774" y="7307461"/>
+          <a:ext cx="5362575" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723545</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>555918</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAFAFD2-74DC-C4F9-F003-A9CB24B638F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381520" y="133350"/>
+          <a:ext cx="6690373" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>655680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>183105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F9197A-471D-FA2C-B52A-84158DD8BCBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9162143" y="396875"/>
+          <a:ext cx="5168716" cy="2337569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1346C567-4ADA-846A-EB6A-F4396BC56FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="21058909" y="277091"/>
-          <a:ext cx="8915400" cy="3706956"/>
+          <a:off x="9906000" y="3095625"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,28 +2512,182 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>398318</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>759731</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>192767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>541193</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139412</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22678</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D237DCC0-CF66-7B45-91CD-01801558E840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9876517" y="3140981"/>
+          <a:ext cx="9899197" cy="5579548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07ED9AB5-B39E-0494-1422-243CC7FCB07D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DB01D3-A24A-027A-663E-E714D97ABDE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10525124" y="381000"/>
+          <a:ext cx="8124825" cy="3675714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>429365</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94B17DF-43A6-43E9-B421-975585F365A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="0"/>
+          <a:ext cx="5306165" cy="3772426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>686539</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>29058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52139F7A-8557-496C-A614-C4CA5FFC838A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,8 +2703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22080682" y="3740728"/>
-          <a:ext cx="6238875" cy="2200275"/>
+          <a:off x="6886575" y="0"/>
+          <a:ext cx="5296639" cy="3458058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1464,129 +2713,33 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>294409</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>46759</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>37234</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F08374-EC6E-224E-55E4-C967CBE8AEDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21976773" y="5992091"/>
-          <a:ext cx="5848350" cy="2098098"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>277091</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>303934</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>46759</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4" descr="Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F979EEA0-154A-1DDB-E1F0-8F4E9004FC9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21959455" y="7412182"/>
-          <a:ext cx="5360843" cy="3060122"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja de trabajo"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="23">
+          <cell r="H23" t="str">
+            <v>A1)</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="H30" t="str">
+            <v>A3)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1870,14 +3023,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -1917,14 +3070,14 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="120"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="185"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -1956,7 +3109,7 @@
       <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="E8" s="186" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="8">
@@ -1972,7 +3125,7 @@
       <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="129"/>
+      <c r="E9" s="187"/>
       <c r="F9" s="8">
         <v>12100</v>
       </c>
@@ -1986,7 +3139,7 @@
       <c r="D10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="129"/>
+      <c r="E10" s="187"/>
       <c r="F10" s="9">
         <v>11700</v>
       </c>
@@ -2000,7 +3153,7 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="187"/>
       <c r="F11" s="9">
         <v>21200</v>
       </c>
@@ -2014,7 +3167,7 @@
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="129"/>
+      <c r="E12" s="187"/>
       <c r="F12" s="9">
         <v>6000</v>
       </c>
@@ -2028,7 +3181,7 @@
       <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="129"/>
+      <c r="E13" s="187"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10">
         <v>12200</v>
@@ -2042,7 +3195,7 @@
       <c r="D14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="130"/>
+      <c r="E14" s="188"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12">
         <v>48800</v>
@@ -2051,14 +3204,14 @@
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="120"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="185"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -2079,57 +3232,57 @@
       <c r="G17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="131"/>
+      <c r="J17" s="189"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="132"/>
+      <c r="B18" s="190"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="192" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="9">
         <v>500</v>
       </c>
       <c r="G18" s="32"/>
-      <c r="J18" s="131"/>
+      <c r="J18" s="189"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="133"/>
+      <c r="B19" s="191"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="111"/>
+      <c r="E19" s="192"/>
       <c r="F19" s="9"/>
       <c r="G19" s="32">
         <v>500</v>
       </c>
-      <c r="J19" s="134"/>
+      <c r="J19" s="193"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="114"/>
-      <c r="J20" s="135"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="197"/>
+      <c r="J20" s="194"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="123"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="200"/>
       <c r="E21" s="2" t="s">
         <v>31</v>
       </c>
@@ -2145,17 +3298,17 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="124"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="126"/>
+      <c r="B22" s="201"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="109">
+      <c r="F22" s="204">
         <f>F21-G21</f>
         <v>0</v>
       </c>
-      <c r="G22" s="110"/>
+      <c r="G22" s="205"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
@@ -2164,14 +3317,14 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="120"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="185"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -2227,17 +3380,17 @@
       </c>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="112"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="197"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
       <c r="E29" s="2" t="s">
         <v>31</v>
       </c>
@@ -2251,28 +3404,28 @@
       </c>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="209"/>
       <c r="E30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="109">
+      <c r="F30" s="204">
         <f>F29-G29</f>
         <v>0</v>
       </c>
-      <c r="G30" s="110"/>
+      <c r="G30" s="205"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="117"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="212"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
@@ -2304,7 +3457,7 @@
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="127" t="s">
+      <c r="E34" s="213" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="9">
@@ -2320,24 +3473,24 @@
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="127"/>
+      <c r="E35" s="213"/>
       <c r="F35" s="9"/>
       <c r="G35" s="32">
         <v>450</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="112"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="114"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="197"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="105"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
       <c r="E37" s="2" t="s">
         <v>31</v>
       </c>
@@ -2351,28 +3504,28 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="209"/>
       <c r="E38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="109">
+      <c r="F38" s="204">
         <f>F37-G37</f>
         <v>0</v>
       </c>
-      <c r="G38" s="110"/>
+      <c r="G38" s="205"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="118" t="s">
+      <c r="B40" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="120"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="185"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -2404,7 +3557,7 @@
       <c r="D42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="111" t="s">
+      <c r="E42" s="192" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="9">
@@ -2420,24 +3573,24 @@
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="111"/>
+      <c r="E43" s="192"/>
       <c r="F43" s="9"/>
       <c r="G43" s="32">
         <v>500</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="112"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="114"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="197"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="105"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="207"/>
       <c r="E45" s="2" t="s">
         <v>31</v>
       </c>
@@ -2451,28 +3604,28 @@
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="107"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="209"/>
+      <c r="D46" s="209"/>
       <c r="E46" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="109">
+      <c r="F46" s="204">
         <f>F45-G45</f>
         <v>0</v>
       </c>
-      <c r="G46" s="110"/>
+      <c r="G46" s="205"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="117"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
+      <c r="G48" s="212"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
@@ -2527,17 +3680,17 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="112"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="114"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="197"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="105"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
+      <c r="B53" s="206"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="207"/>
       <c r="E53" s="2" t="s">
         <v>31</v>
       </c>
@@ -2551,29 +3704,28 @@
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="107"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
+      <c r="B54" s="208"/>
+      <c r="C54" s="209"/>
+      <c r="D54" s="209"/>
       <c r="E54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="109">
+      <c r="F54" s="204">
         <f>F53-G53</f>
         <v>0</v>
       </c>
-      <c r="G54" s="110"/>
+      <c r="G54" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B52:G52"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B21:D22"/>
     <mergeCell ref="F22:G22"/>
@@ -2586,14 +3738,15 @@
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:D38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2603,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,40 +3778,40 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="215" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="43"/>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="137"/>
+      <c r="D2" s="219"/>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
-      <c r="G2" s="150" t="s">
+      <c r="G2" s="223" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="151"/>
+      <c r="H2" s="224"/>
       <c r="I2" s="57"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="141" t="s">
+      <c r="K2" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="142"/>
+      <c r="L2" s="226"/>
       <c r="M2" s="57"/>
-      <c r="O2" s="152" t="s">
+      <c r="O2" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="153"/>
-      <c r="S2" s="136" t="s">
+      <c r="P2" s="228"/>
+      <c r="S2" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="137"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
+      <c r="T2" s="219"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="145"/>
+      <c r="A3" s="216"/>
       <c r="B3" s="58">
         <v>1</v>
       </c>
@@ -2710,7 +3863,7 @@
       <c r="W3" s="54"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
+      <c r="A4" s="216"/>
       <c r="B4" s="88"/>
       <c r="C4" s="86"/>
       <c r="D4" s="87">
@@ -2736,7 +3889,7 @@
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
+      <c r="A5" s="216"/>
       <c r="B5" s="63">
         <v>5</v>
       </c>
@@ -2776,7 +3929,7 @@
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
+      <c r="A6" s="216"/>
       <c r="B6" s="72">
         <v>9</v>
       </c>
@@ -2812,7 +3965,7 @@
       <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="145"/>
+      <c r="A7" s="216"/>
       <c r="B7" s="82">
         <v>12</v>
       </c>
@@ -2848,7 +4001,7 @@
       <c r="W7" s="54"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
+      <c r="A8" s="216"/>
       <c r="B8" s="37"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23">
@@ -2880,7 +4033,7 @@
       <c r="W8" s="54"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
+      <c r="A9" s="216"/>
       <c r="B9" s="44"/>
       <c r="C9" s="26">
         <f>SUM(C3:C7)</f>
@@ -2925,7 +4078,7 @@
       <c r="W9" s="54"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+      <c r="A10" s="216"/>
       <c r="B10" s="44"/>
       <c r="C10" s="85">
         <f>C9-D9</f>
@@ -2955,7 +4108,7 @@
       <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="146"/>
+      <c r="A11" s="217"/>
       <c r="B11" s="38"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -2999,20 +4152,20 @@
       <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="215" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="43"/>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="137"/>
+      <c r="D14" s="219"/>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="137"/>
+      <c r="H14" s="219"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="M14" s="57"/>
@@ -3021,7 +4174,7 @@
       <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="67">
         <v>6</v>
       </c>
@@ -3049,7 +4202,7 @@
       <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+      <c r="A16" s="216"/>
       <c r="B16" s="81">
         <v>11</v>
       </c>
@@ -3077,7 +4230,7 @@
       <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="37"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -3093,7 +4246,7 @@
       <c r="R17" s="57"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
+      <c r="A18" s="216"/>
       <c r="B18" s="37"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -3109,7 +4262,7 @@
       <c r="R18" s="57"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="44"/>
       <c r="C19" s="20">
         <f>SUM(C15:C16)</f>
@@ -3134,7 +4287,7 @@
       <c r="R19" s="57"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+      <c r="A20" s="216"/>
       <c r="B20" s="44"/>
       <c r="C20" s="16"/>
       <c r="D20" s="91">
@@ -3153,7 +4306,7 @@
       <c r="R20" s="57"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="146"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="45"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
@@ -3189,20 +4342,20 @@
       <c r="R23" s="57"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="220" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="137"/>
+      <c r="D24" s="219"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="136" t="s">
+      <c r="G24" s="218" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="137"/>
+      <c r="H24" s="219"/>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="M24" s="57"/>
@@ -3211,7 +4364,7 @@
       <c r="R24" s="57"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="148"/>
+      <c r="A25" s="221"/>
       <c r="B25" s="71">
         <v>7</v>
       </c>
@@ -3234,7 +4387,7 @@
       <c r="R25" s="57"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="148"/>
+      <c r="A26" s="221"/>
       <c r="B26" s="39"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -3250,7 +4403,7 @@
       <c r="R26" s="57"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="148"/>
+      <c r="A27" s="221"/>
       <c r="B27" s="39"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -3266,7 +4419,7 @@
       <c r="R27" s="57"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
+      <c r="A28" s="221"/>
       <c r="B28" s="39"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -3282,7 +4435,7 @@
       <c r="R28" s="57"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="148"/>
+      <c r="A29" s="221"/>
       <c r="B29" s="47"/>
       <c r="C29" s="20">
         <v>5000</v>
@@ -3300,7 +4453,7 @@
       <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="148"/>
+      <c r="A30" s="221"/>
       <c r="B30" s="47"/>
       <c r="C30" s="16"/>
       <c r="D30" s="93">
@@ -3319,7 +4472,7 @@
       <c r="R30" s="57"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="149"/>
+      <c r="A31" s="222"/>
       <c r="B31" s="48"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
@@ -3355,37 +4508,37 @@
       <c r="R33" s="57"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="138" t="s">
+      <c r="A34" s="229" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="49"/>
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="137"/>
+      <c r="D34" s="219"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
-      <c r="G34" s="141" t="s">
+      <c r="G34" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="142"/>
+      <c r="H34" s="226"/>
       <c r="I34" s="57"/>
       <c r="J34" s="57"/>
-      <c r="K34" s="136" t="s">
+      <c r="K34" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="137"/>
+      <c r="L34" s="219"/>
       <c r="M34" s="57"/>
       <c r="N34" s="57"/>
-      <c r="O34" s="136" t="s">
+      <c r="O34" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="P34" s="137"/>
+      <c r="P34" s="219"/>
       <c r="Q34" s="57"/>
       <c r="R34" s="57"/>
     </row>
     <row r="35" spans="1:18" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
+      <c r="A35" s="230"/>
       <c r="B35" s="80">
         <v>10</v>
       </c>
@@ -3421,7 +4574,7 @@
       <c r="R35" s="57"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="139"/>
+      <c r="A36" s="230"/>
       <c r="B36" s="50"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -3449,7 +4602,7 @@
       <c r="R36" s="57"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="139"/>
+      <c r="A37" s="230"/>
       <c r="B37" s="50"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -3469,7 +4622,7 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="139"/>
+      <c r="A38" s="230"/>
       <c r="B38" s="50"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -3489,7 +4642,7 @@
       <c r="R38" s="57"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
+      <c r="A39" s="230"/>
       <c r="B39" s="51"/>
       <c r="C39" s="94">
         <v>2000</v>
@@ -3517,7 +4670,7 @@
       <c r="R39" s="57"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
+      <c r="A40" s="230"/>
       <c r="B40" s="51"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
@@ -3543,7 +4696,7 @@
       <c r="R40" s="57"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
+      <c r="A41" s="231"/>
       <c r="B41" s="52"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
@@ -3583,33 +4736,33 @@
       <c r="R43" s="57"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="229" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="49"/>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="137"/>
+      <c r="D44" s="219"/>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
-      <c r="G44" s="136" t="s">
+      <c r="G44" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="137"/>
+      <c r="H44" s="219"/>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
-      <c r="K44" s="136" t="s">
+      <c r="K44" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="L44" s="137"/>
+      <c r="L44" s="219"/>
       <c r="M44" s="57"/>
       <c r="N44" s="57"/>
       <c r="Q44" s="57"/>
       <c r="R44" s="57"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="139"/>
+      <c r="A45" s="230"/>
       <c r="B45" s="50"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28">
@@ -3639,7 +4792,7 @@
       <c r="R45" s="57"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="139"/>
+      <c r="A46" s="230"/>
       <c r="B46" s="50"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29">
@@ -3661,7 +4814,7 @@
       <c r="R46" s="57"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="139"/>
+      <c r="A47" s="230"/>
       <c r="B47" s="50"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -3679,7 +4832,7 @@
       <c r="R47" s="57"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="139"/>
+      <c r="A48" s="230"/>
       <c r="B48" s="50"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -3697,7 +4850,7 @@
       <c r="R48" s="57"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="139"/>
+      <c r="A49" s="230"/>
       <c r="B49" s="51"/>
       <c r="C49" s="20"/>
       <c r="D49" s="92">
@@ -3724,7 +4877,7 @@
       <c r="R49" s="57"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="139"/>
+      <c r="A50" s="230"/>
       <c r="B50" s="51"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
@@ -3742,7 +4895,7 @@
       <c r="R50" s="57"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="140"/>
+      <c r="A51" s="231"/>
       <c r="B51" s="52"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
@@ -3780,6 +4933,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="C14:D14"/>
@@ -3793,18 +4955,8 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3812,7 +4964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E2:G20"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3825,11 +4977,11 @@
   <sheetData>
     <row r="2" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="234"/>
     </row>
     <row r="4" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E4" s="89"/>
@@ -4000,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="A48" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4022,40 +5174,40 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="215" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="43"/>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="137"/>
+      <c r="D2" s="219"/>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
-      <c r="G2" s="150" t="s">
+      <c r="G2" s="223" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="151"/>
+      <c r="H2" s="224"/>
       <c r="I2" s="57"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="141" t="s">
+      <c r="K2" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="142"/>
+      <c r="L2" s="226"/>
       <c r="M2" s="57"/>
-      <c r="O2" s="152" t="s">
+      <c r="O2" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="153"/>
-      <c r="S2" s="136" t="s">
+      <c r="P2" s="228"/>
+      <c r="S2" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="137"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
+      <c r="T2" s="219"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="145"/>
+      <c r="A3" s="216"/>
       <c r="B3" s="58">
         <v>1</v>
       </c>
@@ -4107,7 +5259,7 @@
       <c r="W3" s="54"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
+      <c r="A4" s="216"/>
       <c r="B4" s="88"/>
       <c r="C4" s="86"/>
       <c r="D4" s="87">
@@ -4133,7 +5285,7 @@
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
+      <c r="A5" s="216"/>
       <c r="B5" s="63">
         <v>5</v>
       </c>
@@ -4173,7 +5325,7 @@
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
+      <c r="A6" s="216"/>
       <c r="B6" s="72">
         <v>9</v>
       </c>
@@ -4209,7 +5361,7 @@
       <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="145"/>
+      <c r="A7" s="216"/>
       <c r="B7" s="82">
         <v>12</v>
       </c>
@@ -4245,7 +5397,7 @@
       <c r="W7" s="54"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
+      <c r="A8" s="216"/>
       <c r="B8" s="37"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23">
@@ -4277,7 +5429,7 @@
       <c r="W8" s="54"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
+      <c r="A9" s="216"/>
       <c r="B9" s="44"/>
       <c r="C9" s="26">
         <f>SUM(C3:C7)</f>
@@ -4322,7 +5474,7 @@
       <c r="W9" s="54"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+      <c r="A10" s="216"/>
       <c r="B10" s="44"/>
       <c r="C10" s="85">
         <f>C9-D9</f>
@@ -4352,7 +5504,7 @@
       <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="146"/>
+      <c r="A11" s="217"/>
       <c r="B11" s="38"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -4396,20 +5548,20 @@
       <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="215" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="43"/>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="137"/>
+      <c r="D14" s="219"/>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="137"/>
+      <c r="H14" s="219"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="M14" s="57"/>
@@ -4418,7 +5570,7 @@
       <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="67">
         <v>6</v>
       </c>
@@ -4446,7 +5598,7 @@
       <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+      <c r="A16" s="216"/>
       <c r="B16" s="81">
         <v>11</v>
       </c>
@@ -4474,7 +5626,7 @@
       <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="37"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -4490,7 +5642,7 @@
       <c r="R17" s="57"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
+      <c r="A18" s="216"/>
       <c r="B18" s="37"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -4506,7 +5658,7 @@
       <c r="R18" s="57"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="44"/>
       <c r="C19" s="20">
         <f>SUM(C15:C16)</f>
@@ -4531,7 +5683,7 @@
       <c r="R19" s="57"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+      <c r="A20" s="216"/>
       <c r="B20" s="44"/>
       <c r="C20" s="16"/>
       <c r="D20" s="91">
@@ -4550,7 +5702,7 @@
       <c r="R20" s="57"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="146"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="45"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
@@ -4586,20 +5738,20 @@
       <c r="R23" s="57"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="220" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="137"/>
+      <c r="D24" s="219"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="136" t="s">
+      <c r="G24" s="218" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="137"/>
+      <c r="H24" s="219"/>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="M24" s="57"/>
@@ -4608,7 +5760,7 @@
       <c r="R24" s="57"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="148"/>
+      <c r="A25" s="221"/>
       <c r="B25" s="71">
         <v>7</v>
       </c>
@@ -4631,7 +5783,7 @@
       <c r="R25" s="57"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="148"/>
+      <c r="A26" s="221"/>
       <c r="B26" s="39"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -4647,7 +5799,7 @@
       <c r="R26" s="57"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="148"/>
+      <c r="A27" s="221"/>
       <c r="B27" s="39"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -4663,7 +5815,7 @@
       <c r="R27" s="57"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
+      <c r="A28" s="221"/>
       <c r="B28" s="39"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -4679,7 +5831,7 @@
       <c r="R28" s="57"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="148"/>
+      <c r="A29" s="221"/>
       <c r="B29" s="47"/>
       <c r="C29" s="20">
         <v>5000</v>
@@ -4697,7 +5849,7 @@
       <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="148"/>
+      <c r="A30" s="221"/>
       <c r="B30" s="47"/>
       <c r="C30" s="16"/>
       <c r="D30" s="93">
@@ -4716,7 +5868,7 @@
       <c r="R30" s="57"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="149"/>
+      <c r="A31" s="222"/>
       <c r="B31" s="48"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
@@ -4752,37 +5904,37 @@
       <c r="R33" s="57"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="138" t="s">
+      <c r="A34" s="229" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="49"/>
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="137"/>
+      <c r="D34" s="219"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
-      <c r="G34" s="141" t="s">
+      <c r="G34" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="142"/>
+      <c r="H34" s="226"/>
       <c r="I34" s="57"/>
       <c r="J34" s="57"/>
-      <c r="K34" s="136" t="s">
+      <c r="K34" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="137"/>
+      <c r="L34" s="219"/>
       <c r="M34" s="57"/>
       <c r="N34" s="57"/>
-      <c r="O34" s="136" t="s">
+      <c r="O34" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="P34" s="137"/>
+      <c r="P34" s="219"/>
       <c r="Q34" s="57"/>
       <c r="R34" s="57"/>
     </row>
     <row r="35" spans="1:18" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
+      <c r="A35" s="230"/>
       <c r="B35" s="80">
         <v>10</v>
       </c>
@@ -4818,7 +5970,7 @@
       <c r="R35" s="57"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="139"/>
+      <c r="A36" s="230"/>
       <c r="B36" s="50"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -4846,7 +5998,7 @@
       <c r="R36" s="57"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="139"/>
+      <c r="A37" s="230"/>
       <c r="B37" s="50"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -4866,7 +6018,7 @@
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="139"/>
+      <c r="A38" s="230"/>
       <c r="B38" s="50"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -4886,7 +6038,7 @@
       <c r="R38" s="57"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
+      <c r="A39" s="230"/>
       <c r="B39" s="51"/>
       <c r="C39" s="94">
         <v>2000</v>
@@ -4914,7 +6066,7 @@
       <c r="R39" s="57"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
+      <c r="A40" s="230"/>
       <c r="B40" s="51"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
@@ -4940,7 +6092,7 @@
       <c r="R40" s="57"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
+      <c r="A41" s="231"/>
       <c r="B41" s="52"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
@@ -4980,33 +6132,33 @@
       <c r="R43" s="57"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="229" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="49"/>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="137"/>
+      <c r="D44" s="219"/>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
-      <c r="G44" s="136" t="s">
+      <c r="G44" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="137"/>
+      <c r="H44" s="219"/>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
-      <c r="K44" s="136" t="s">
+      <c r="K44" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="L44" s="137"/>
+      <c r="L44" s="219"/>
       <c r="M44" s="57"/>
       <c r="N44" s="57"/>
       <c r="Q44" s="57"/>
       <c r="R44" s="57"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="139"/>
+      <c r="A45" s="230"/>
       <c r="B45" s="50"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28">
@@ -5036,7 +6188,7 @@
       <c r="R45" s="57"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="139"/>
+      <c r="A46" s="230"/>
       <c r="B46" s="50"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29">
@@ -5058,7 +6210,7 @@
       <c r="R46" s="57"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="139"/>
+      <c r="A47" s="230"/>
       <c r="B47" s="50"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -5076,7 +6228,7 @@
       <c r="R47" s="57"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="139"/>
+      <c r="A48" s="230"/>
       <c r="B48" s="50"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -5094,7 +6246,7 @@
       <c r="R48" s="57"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="139"/>
+      <c r="A49" s="230"/>
       <c r="B49" s="51"/>
       <c r="C49" s="20"/>
       <c r="D49" s="92">
@@ -5121,7 +6273,7 @@
       <c r="R49" s="57"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="139"/>
+      <c r="A50" s="230"/>
       <c r="B50" s="51"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
@@ -5139,7 +6291,7 @@
       <c r="R50" s="57"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="140"/>
+      <c r="A51" s="231"/>
       <c r="B51" s="52"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
@@ -5170,20 +6322,20 @@
       <c r="N53" s="57"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C54" s="161" t="s">
+      <c r="C54" s="235" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="162"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="162"/>
-      <c r="G54" s="163"/>
+      <c r="D54" s="236"/>
+      <c r="E54" s="236"/>
+      <c r="F54" s="236"/>
+      <c r="G54" s="237"/>
       <c r="M54" s="57"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="124" t="s">
+      <c r="C55" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="125"/>
+      <c r="D55" s="202"/>
       <c r="E55" s="101">
         <v>56000</v>
       </c>
@@ -5194,21 +6346,21 @@
       <c r="M55" s="57"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C56" s="164" t="s">
+      <c r="C56" s="242" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="166"/>
+      <c r="D56" s="243"/>
+      <c r="E56" s="243"/>
+      <c r="F56" s="243"/>
+      <c r="G56" s="244"/>
       <c r="I56" s="99"/>
       <c r="J56" s="100"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="124" t="s">
+      <c r="C57" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="125"/>
+      <c r="D57" s="202"/>
       <c r="E57" s="104">
         <f>SUM(C39,O40)</f>
         <v>25000</v>
@@ -5219,21 +6371,21 @@
       <c r="J57" s="100"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C58" s="158" t="s">
+      <c r="C58" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="160"/>
+      <c r="D58" s="240"/>
+      <c r="E58" s="240"/>
+      <c r="F58" s="240"/>
+      <c r="G58" s="241"/>
       <c r="I58" s="99"/>
       <c r="J58" s="100"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="124" t="s">
+      <c r="C59" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="125"/>
+      <c r="D59" s="202"/>
       <c r="E59" s="104">
         <f>E57-L49-H49</f>
         <v>22700</v>
@@ -5244,21 +6396,21 @@
       <c r="J59" s="100"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C60" s="161" t="s">
+      <c r="C60" s="235" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
-      <c r="F60" s="162"/>
-      <c r="G60" s="163"/>
+      <c r="D60" s="236"/>
+      <c r="E60" s="236"/>
+      <c r="F60" s="236"/>
+      <c r="G60" s="237"/>
       <c r="I60" s="99"/>
       <c r="J60" s="100"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="124" t="s">
+      <c r="C61" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="125"/>
+      <c r="D61" s="202"/>
       <c r="E61" s="104">
         <f>SUM(E59,G9)</f>
         <v>27500</v>
@@ -5268,47 +6420,47 @@
       <c r="I61" s="99"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C62" s="161" t="s">
+      <c r="C62" s="235" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="162"/>
-      <c r="E62" s="162"/>
-      <c r="F62" s="162"/>
-      <c r="G62" s="163"/>
+      <c r="D62" s="236"/>
+      <c r="E62" s="236"/>
+      <c r="F62" s="236"/>
+      <c r="G62" s="237"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="124" t="s">
+      <c r="C63" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="125"/>
+      <c r="D63" s="202"/>
       <c r="E63" s="104">
         <f>E61-8000</f>
         <v>19500</v>
       </c>
       <c r="F63" s="102"/>
       <c r="G63" s="103"/>
-      <c r="H63" s="157" t="s">
+      <c r="H63" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="I63" s="135"/>
-      <c r="J63" s="135"/>
-      <c r="K63" s="135"/>
-      <c r="L63" s="135"/>
+      <c r="I63" s="194"/>
+      <c r="J63" s="194"/>
+      <c r="K63" s="194"/>
+      <c r="L63" s="194"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C64" s="161" t="s">
+      <c r="C64" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="162"/>
-      <c r="E64" s="162"/>
-      <c r="F64" s="162"/>
-      <c r="G64" s="163"/>
+      <c r="D64" s="236"/>
+      <c r="E64" s="236"/>
+      <c r="F64" s="236"/>
+      <c r="G64" s="237"/>
     </row>
     <row r="65" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="124" t="s">
+      <c r="C65" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="125"/>
+      <c r="D65" s="202"/>
       <c r="E65" s="101">
         <f>D49-E63</f>
         <v>36500</v>
@@ -5317,32 +6469,40 @@
       <c r="G65" s="103"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="161" t="s">
+      <c r="C66" s="235" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="162"/>
-      <c r="E66" s="162"/>
-      <c r="F66" s="162"/>
-      <c r="G66" s="163"/>
+      <c r="D66" s="236"/>
+      <c r="E66" s="236"/>
+      <c r="F66" s="236"/>
+      <c r="G66" s="237"/>
     </row>
     <row r="67" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="124"/>
-      <c r="D67" s="125"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="202"/>
       <c r="E67" s="102"/>
       <c r="F67" s="102"/>
       <c r="G67" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:G66"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="C14:D14"/>
@@ -5356,21 +6516,3662 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:G66"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="109">
+        <f>7*12</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="109">
+        <f>(25*12)/52</f>
+        <v>5.7692307692307692</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="109">
+        <f>((25*12)+ ((25*12)*0.315))/52</f>
+        <v>7.5865384615384617</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="109">
+        <f>(84+7.59)*0.075</f>
+        <v>6.8692500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="112">
+        <f>(84+7.59)*0.0775</f>
+        <v>7.0982250000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="252"/>
+      <c r="D9" s="113">
+        <f>SUM(D4:D8)</f>
+        <v>111.32324423076923</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="246" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="247"/>
+      <c r="D10" s="109">
+        <f>D9/5</f>
+        <v>22.264648846153847</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="248" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="249"/>
+      <c r="D11" s="114">
+        <f>D10/8</f>
+        <v>2.7830811057692308</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="238"/>
+      <c r="C12" s="253"/>
+      <c r="D12" s="115"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="251" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="252"/>
+      <c r="D13" s="113">
+        <f>D11/(12/8)</f>
+        <v>1.855387403846154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="246" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="247"/>
+      <c r="D14" s="109">
+        <f>D11/((12/8)*0.8)</f>
+        <v>2.3192342548076921</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="246" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="247"/>
+      <c r="D15" s="109">
+        <f>D10/12</f>
+        <v>1.855387403846154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="248" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="249"/>
+      <c r="D16" s="114">
+        <f>D10/(12*0.8)</f>
+        <v>2.3192342548076921</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="250" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="250"/>
+      <c r="D19" s="250"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="250" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="250"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="250"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="245" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="245"/>
+      <c r="D23" s="245"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="245"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="245"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="245"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="245"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="245"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B23:D26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B19:D19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B3:W73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="254" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="255"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="255"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="256" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="257" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="258" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="259" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="259"/>
+      <c r="K5" s="259"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="256"/>
+      <c r="C6" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124">
+        <v>100</v>
+      </c>
+      <c r="J7" s="125">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="125">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="126"/>
+      <c r="C8" s="127">
+        <v>300</v>
+      </c>
+      <c r="D8" s="128">
+        <v>1.56</v>
+      </c>
+      <c r="E8" s="128">
+        <v>468</v>
+      </c>
+      <c r="F8" s="129"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131">
+        <v>100</v>
+      </c>
+      <c r="J8" s="132">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="133">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="126"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138">
+        <v>300</v>
+      </c>
+      <c r="J9" s="139">
+        <v>1.56</v>
+      </c>
+      <c r="K9" s="140">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="129">
+        <v>80</v>
+      </c>
+      <c r="G10" s="130">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="130">
+        <v>120</v>
+      </c>
+      <c r="I10" s="131">
+        <v>20</v>
+      </c>
+      <c r="J10" s="132">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="126"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138">
+        <v>300</v>
+      </c>
+      <c r="J11" s="139">
+        <v>1.56</v>
+      </c>
+      <c r="K11" s="140">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129">
+        <v>20</v>
+      </c>
+      <c r="G12" s="130">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="130">
+        <v>30</v>
+      </c>
+      <c r="I12" s="131">
+        <v>180</v>
+      </c>
+      <c r="J12" s="132">
+        <v>1.56</v>
+      </c>
+      <c r="K12" s="133">
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="126"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="136">
+        <v>120</v>
+      </c>
+      <c r="G13" s="137">
+        <v>1.56</v>
+      </c>
+      <c r="H13" s="137">
+        <v>187.2</v>
+      </c>
+      <c r="I13" s="138"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="140"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="126"/>
+      <c r="C14" s="127">
+        <v>150</v>
+      </c>
+      <c r="D14" s="128">
+        <v>1.6</v>
+      </c>
+      <c r="E14" s="128">
+        <v>240</v>
+      </c>
+      <c r="F14" s="129"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131">
+        <v>180</v>
+      </c>
+      <c r="J14" s="132">
+        <v>1.56</v>
+      </c>
+      <c r="K14" s="133">
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="126"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138">
+        <v>150</v>
+      </c>
+      <c r="J15" s="139">
+        <v>1.6</v>
+      </c>
+      <c r="K15" s="140">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129">
+        <v>130</v>
+      </c>
+      <c r="G16" s="130">
+        <v>1.56</v>
+      </c>
+      <c r="H16" s="130">
+        <v>202.8</v>
+      </c>
+      <c r="I16" s="131">
+        <v>50</v>
+      </c>
+      <c r="J16" s="132">
+        <v>1.56</v>
+      </c>
+      <c r="K16" s="133">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="126"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138">
+        <v>150</v>
+      </c>
+      <c r="J17" s="139">
+        <v>1.6</v>
+      </c>
+      <c r="K17" s="140">
+        <v>240</v>
+      </c>
+      <c r="O17" s="263"/>
+      <c r="P17" s="263"/>
+      <c r="Q17" s="263"/>
+      <c r="R17" s="263"/>
+      <c r="S17" s="263"/>
+      <c r="T17" s="263"/>
+      <c r="U17" s="263"/>
+      <c r="V17" s="263"/>
+      <c r="W17" s="263"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129">
+        <v>50</v>
+      </c>
+      <c r="G18" s="130">
+        <v>1.56</v>
+      </c>
+      <c r="H18" s="130">
+        <v>78</v>
+      </c>
+      <c r="I18" s="131">
+        <v>90</v>
+      </c>
+      <c r="J18" s="132">
+        <v>1.6</v>
+      </c>
+      <c r="K18" s="133">
+        <v>144</v>
+      </c>
+      <c r="N18" s="264"/>
+      <c r="O18" s="264"/>
+      <c r="P18" s="264"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="264"/>
+      <c r="S18" s="264"/>
+      <c r="T18" s="264"/>
+      <c r="U18" s="264"/>
+      <c r="V18" s="264"/>
+      <c r="W18" s="264"/>
+    </row>
+    <row r="19" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="126"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136">
+        <v>60</v>
+      </c>
+      <c r="G19" s="137">
+        <v>1.6</v>
+      </c>
+      <c r="H19" s="137">
+        <v>96</v>
+      </c>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="140"/>
+      <c r="N19" s="265"/>
+      <c r="O19" s="266"/>
+      <c r="P19" s="266"/>
+      <c r="Q19" s="266"/>
+      <c r="R19" s="266"/>
+      <c r="S19" s="266"/>
+      <c r="T19" s="266"/>
+      <c r="U19" s="266"/>
+      <c r="V19" s="266"/>
+      <c r="W19" s="266"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="126"/>
+      <c r="C20" s="127">
+        <v>150</v>
+      </c>
+      <c r="D20" s="128">
+        <v>1.7</v>
+      </c>
+      <c r="E20" s="128">
+        <v>255</v>
+      </c>
+      <c r="F20" s="129"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131">
+        <v>90</v>
+      </c>
+      <c r="J20" s="132">
+        <v>1.6</v>
+      </c>
+      <c r="K20" s="133">
+        <v>144</v>
+      </c>
+      <c r="O20" s="260"/>
+      <c r="P20" s="260"/>
+      <c r="Q20" s="260"/>
+      <c r="R20" s="260"/>
+      <c r="S20" s="260"/>
+      <c r="T20" s="260"/>
+      <c r="U20" s="260"/>
+      <c r="V20" s="260"/>
+      <c r="W20" s="260"/>
+    </row>
+    <row r="21" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="126"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="138">
+        <v>150</v>
+      </c>
+      <c r="J21" s="139">
+        <v>1.7</v>
+      </c>
+      <c r="K21" s="140">
+        <v>255</v>
+      </c>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="262"/>
+      <c r="Q21" s="262"/>
+      <c r="R21" s="261"/>
+      <c r="S21" s="262"/>
+      <c r="T21" s="262"/>
+      <c r="U21" s="261"/>
+      <c r="V21" s="262"/>
+      <c r="W21" s="262"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="126"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129">
+        <v>90</v>
+      </c>
+      <c r="G22" s="130">
+        <v>1.6</v>
+      </c>
+      <c r="H22" s="130">
+        <v>144</v>
+      </c>
+      <c r="I22" s="131">
+        <v>100</v>
+      </c>
+      <c r="J22" s="132">
+        <v>1.7</v>
+      </c>
+      <c r="K22" s="133">
+        <v>170</v>
+      </c>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="262"/>
+      <c r="Q22" s="262"/>
+      <c r="R22" s="261"/>
+      <c r="S22" s="262"/>
+      <c r="T22" s="262"/>
+      <c r="U22" s="261"/>
+      <c r="V22" s="262"/>
+      <c r="W22" s="262"/>
+    </row>
+    <row r="23" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="126"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136">
+        <v>50</v>
+      </c>
+      <c r="G23" s="137">
+        <v>1.7</v>
+      </c>
+      <c r="H23" s="137">
+        <v>85</v>
+      </c>
+      <c r="I23" s="138"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="140"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="261"/>
+      <c r="P23" s="262"/>
+      <c r="Q23" s="265"/>
+      <c r="R23" s="261"/>
+      <c r="S23" s="262"/>
+      <c r="T23" s="262"/>
+      <c r="U23" s="261"/>
+      <c r="V23" s="262"/>
+      <c r="W23" s="262"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N24" s="261"/>
+      <c r="O24" s="261"/>
+      <c r="P24" s="262"/>
+      <c r="Q24" s="262"/>
+      <c r="R24" s="261"/>
+      <c r="S24" s="262"/>
+      <c r="T24" s="262"/>
+      <c r="U24" s="261"/>
+      <c r="V24" s="262"/>
+      <c r="W24" s="262"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="254" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="254"/>
+      <c r="D25" s="254"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="254"/>
+      <c r="J25" s="254"/>
+      <c r="K25" s="254"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="267"/>
+      <c r="Q25" s="267"/>
+      <c r="R25" s="261"/>
+      <c r="S25" s="262"/>
+      <c r="T25" s="262"/>
+      <c r="U25" s="261"/>
+      <c r="V25" s="262"/>
+      <c r="W25" s="262"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="255"/>
+      <c r="C26" s="255"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="255"/>
+      <c r="G26" s="255"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="255"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="267"/>
+      <c r="Q26" s="267"/>
+      <c r="R26" s="261"/>
+      <c r="S26" s="262"/>
+      <c r="T26" s="262"/>
+      <c r="U26" s="261"/>
+      <c r="V26" s="262"/>
+      <c r="W26" s="262"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="256" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="257" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="257"/>
+      <c r="E27" s="257"/>
+      <c r="F27" s="258" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="258"/>
+      <c r="H27" s="258"/>
+      <c r="I27" s="259" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="259"/>
+      <c r="K27" s="259"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="262"/>
+      <c r="Q27" s="262"/>
+      <c r="R27" s="261"/>
+      <c r="S27" s="262"/>
+      <c r="T27" s="262"/>
+      <c r="U27" s="261"/>
+      <c r="V27" s="262"/>
+      <c r="W27" s="262"/>
+    </row>
+    <row r="28" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="256"/>
+      <c r="C28" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="142" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="142" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="143" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="262"/>
+      <c r="Q28" s="262"/>
+      <c r="R28" s="261"/>
+      <c r="S28" s="262"/>
+      <c r="T28" s="262"/>
+      <c r="U28" s="261"/>
+      <c r="V28" s="262"/>
+      <c r="W28" s="262"/>
+    </row>
+    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="126"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148">
+        <v>100</v>
+      </c>
+      <c r="J29" s="149">
+        <v>1.5</v>
+      </c>
+      <c r="K29" s="150">
+        <v>150</v>
+      </c>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="262"/>
+      <c r="Q29" s="262"/>
+      <c r="R29" s="261"/>
+      <c r="S29" s="262"/>
+      <c r="T29" s="262"/>
+      <c r="U29" s="261"/>
+      <c r="V29" s="262"/>
+      <c r="W29" s="262"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="126"/>
+      <c r="C30" s="127">
+        <v>300</v>
+      </c>
+      <c r="D30" s="128">
+        <v>1.56</v>
+      </c>
+      <c r="E30" s="128">
+        <v>468</v>
+      </c>
+      <c r="F30" s="129"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="131">
+        <v>100</v>
+      </c>
+      <c r="J30" s="132">
+        <v>1.5</v>
+      </c>
+      <c r="K30" s="133">
+        <v>150</v>
+      </c>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="262"/>
+      <c r="Q30" s="262"/>
+      <c r="R30" s="261"/>
+      <c r="S30" s="262"/>
+      <c r="T30" s="262"/>
+      <c r="U30" s="261"/>
+      <c r="V30" s="262"/>
+      <c r="W30" s="262"/>
+    </row>
+    <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="126"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="138">
+        <v>300</v>
+      </c>
+      <c r="J31" s="139">
+        <v>1.56</v>
+      </c>
+      <c r="K31" s="140">
+        <v>468</v>
+      </c>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="262"/>
+      <c r="Q31" s="262"/>
+      <c r="R31" s="261"/>
+      <c r="S31" s="262"/>
+      <c r="T31" s="262"/>
+      <c r="U31" s="261"/>
+      <c r="V31" s="262"/>
+      <c r="W31" s="262"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="126"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129">
+        <v>80</v>
+      </c>
+      <c r="G32" s="130">
+        <v>1.56</v>
+      </c>
+      <c r="H32" s="130">
+        <v>124.8</v>
+      </c>
+      <c r="I32" s="131">
+        <v>100</v>
+      </c>
+      <c r="J32" s="132">
+        <v>1.5</v>
+      </c>
+      <c r="K32" s="133">
+        <v>150</v>
+      </c>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="262"/>
+      <c r="Q32" s="262"/>
+      <c r="R32" s="261"/>
+      <c r="S32" s="262"/>
+      <c r="T32" s="262"/>
+      <c r="U32" s="261"/>
+      <c r="V32" s="262"/>
+      <c r="W32" s="262"/>
+    </row>
+    <row r="33" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="126"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="138">
+        <v>220</v>
+      </c>
+      <c r="J33" s="139">
+        <v>1.56</v>
+      </c>
+      <c r="K33" s="140">
+        <v>343.2</v>
+      </c>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="262"/>
+      <c r="Q33" s="262"/>
+      <c r="R33" s="261"/>
+      <c r="S33" s="262"/>
+      <c r="T33" s="262"/>
+      <c r="U33" s="261"/>
+      <c r="V33" s="262"/>
+      <c r="W33" s="262"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="126"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129">
+        <v>140</v>
+      </c>
+      <c r="G34" s="130">
+        <v>1.56</v>
+      </c>
+      <c r="H34" s="130">
+        <v>218.4</v>
+      </c>
+      <c r="I34" s="131">
+        <v>100</v>
+      </c>
+      <c r="J34" s="132">
+        <v>1.5</v>
+      </c>
+      <c r="K34" s="133">
+        <v>150</v>
+      </c>
+      <c r="N34" s="261"/>
+      <c r="O34" s="261"/>
+      <c r="P34" s="262"/>
+      <c r="Q34" s="262"/>
+      <c r="R34" s="261"/>
+      <c r="S34" s="262"/>
+      <c r="T34" s="262"/>
+      <c r="U34" s="261"/>
+      <c r="V34" s="262"/>
+      <c r="W34" s="262"/>
+    </row>
+    <row r="35" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="126"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="138">
+        <v>80</v>
+      </c>
+      <c r="J35" s="139">
+        <v>1.56</v>
+      </c>
+      <c r="K35" s="140">
+        <v>124.8</v>
+      </c>
+      <c r="N35" s="261"/>
+      <c r="O35" s="261"/>
+      <c r="P35" s="262"/>
+      <c r="Q35" s="262"/>
+      <c r="R35" s="261"/>
+      <c r="S35" s="262"/>
+      <c r="T35" s="262"/>
+      <c r="U35" s="261"/>
+      <c r="V35" s="262"/>
+      <c r="W35" s="262"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="126"/>
+      <c r="C36" s="127">
+        <v>150</v>
+      </c>
+      <c r="D36" s="128">
+        <v>1.6</v>
+      </c>
+      <c r="E36" s="128">
+        <v>240</v>
+      </c>
+      <c r="F36" s="129"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131">
+        <v>100</v>
+      </c>
+      <c r="J36" s="132">
+        <v>1.5</v>
+      </c>
+      <c r="K36" s="133">
+        <v>150</v>
+      </c>
+      <c r="N36" s="261"/>
+      <c r="O36" s="261"/>
+      <c r="P36" s="262"/>
+      <c r="Q36" s="262"/>
+      <c r="R36" s="261"/>
+      <c r="S36" s="262"/>
+      <c r="T36" s="262"/>
+      <c r="U36" s="261"/>
+      <c r="V36" s="262"/>
+      <c r="W36" s="262"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="126"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="155">
+        <v>80</v>
+      </c>
+      <c r="J37" s="156">
+        <v>1.56</v>
+      </c>
+      <c r="K37" s="157">
+        <v>124.8</v>
+      </c>
+      <c r="N37" s="261"/>
+      <c r="O37" s="261"/>
+      <c r="P37" s="262"/>
+      <c r="Q37" s="262"/>
+      <c r="R37" s="261"/>
+      <c r="S37" s="262"/>
+      <c r="T37" s="262"/>
+      <c r="U37" s="261"/>
+      <c r="V37" s="262"/>
+      <c r="W37" s="262"/>
+    </row>
+    <row r="38" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="126"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="138">
+        <v>150</v>
+      </c>
+      <c r="J38" s="139">
+        <v>1.6</v>
+      </c>
+      <c r="K38" s="140">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="126"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129">
+        <v>130</v>
+      </c>
+      <c r="G39" s="130">
+        <v>1.6</v>
+      </c>
+      <c r="H39" s="130">
+        <v>208</v>
+      </c>
+      <c r="I39" s="131">
+        <v>100</v>
+      </c>
+      <c r="J39" s="132">
+        <v>1.5</v>
+      </c>
+      <c r="K39" s="133">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="126"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="155">
+        <v>80</v>
+      </c>
+      <c r="J40" s="156">
+        <v>1.56</v>
+      </c>
+      <c r="K40" s="157">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="126"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="138">
+        <v>20</v>
+      </c>
+      <c r="J41" s="139">
+        <v>1.6</v>
+      </c>
+      <c r="K41" s="140">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="126"/>
+      <c r="C42" s="127">
+        <v>150</v>
+      </c>
+      <c r="D42" s="128">
+        <v>1.7</v>
+      </c>
+      <c r="E42" s="128">
+        <v>255</v>
+      </c>
+      <c r="F42" s="129">
+        <v>20</v>
+      </c>
+      <c r="G42" s="130">
+        <v>1.6</v>
+      </c>
+      <c r="H42" s="130">
+        <v>32</v>
+      </c>
+      <c r="I42" s="131">
+        <v>90</v>
+      </c>
+      <c r="J42" s="132">
+        <v>1.5</v>
+      </c>
+      <c r="K42" s="133">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="126"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="153">
+        <v>80</v>
+      </c>
+      <c r="G43" s="154">
+        <v>1.56</v>
+      </c>
+      <c r="H43" s="154">
+        <v>124.8</v>
+      </c>
+      <c r="I43" s="155"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="157"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="126"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="153">
+        <v>10</v>
+      </c>
+      <c r="G44" s="154">
+        <v>1.5</v>
+      </c>
+      <c r="H44" s="154">
+        <v>15</v>
+      </c>
+      <c r="I44" s="155"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="157"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="126"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="155">
+        <v>90</v>
+      </c>
+      <c r="J45" s="159">
+        <v>1.5</v>
+      </c>
+      <c r="K45" s="160">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="161"/>
+      <c r="C46" s="162"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="138">
+        <v>150</v>
+      </c>
+      <c r="J46" s="166">
+        <v>1.7</v>
+      </c>
+      <c r="K46" s="167">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="161"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="170">
+        <v>140</v>
+      </c>
+      <c r="G47" s="171">
+        <v>1.7</v>
+      </c>
+      <c r="H47" s="171">
+        <v>238</v>
+      </c>
+      <c r="I47" s="131">
+        <v>90</v>
+      </c>
+      <c r="J47" s="172">
+        <v>1.5</v>
+      </c>
+      <c r="K47" s="173">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="161"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="165"/>
+      <c r="I48" s="138">
+        <v>10</v>
+      </c>
+      <c r="J48" s="166">
+        <v>1.7</v>
+      </c>
+      <c r="K48" s="167">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="254" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="254"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="254"/>
+      <c r="F50" s="254"/>
+      <c r="G50" s="254"/>
+      <c r="H50" s="254"/>
+      <c r="I50" s="254"/>
+      <c r="J50" s="254"/>
+      <c r="K50" s="254"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="254"/>
+      <c r="C51" s="254"/>
+      <c r="D51" s="254"/>
+      <c r="E51" s="254"/>
+      <c r="F51" s="254"/>
+      <c r="G51" s="254"/>
+      <c r="H51" s="254"/>
+      <c r="I51" s="254"/>
+      <c r="J51" s="254"/>
+      <c r="K51" s="254"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="256" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="257" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="257"/>
+      <c r="E52" s="257"/>
+      <c r="F52" s="258" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="258"/>
+      <c r="H52" s="258"/>
+      <c r="I52" s="259" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="259"/>
+      <c r="K52" s="259"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="256"/>
+      <c r="C53" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="K53" s="118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="119"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="152"/>
+      <c r="E54" s="152"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="155">
+        <v>100</v>
+      </c>
+      <c r="J54" s="156">
+        <v>1.5</v>
+      </c>
+      <c r="K54" s="156">
+        <f>I54*J54</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="119"/>
+      <c r="C55" s="174">
+        <v>300</v>
+      </c>
+      <c r="D55" s="152">
+        <v>1.56</v>
+      </c>
+      <c r="E55" s="152">
+        <f>C55*D55</f>
+        <v>468</v>
+      </c>
+      <c r="F55" s="153"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="155">
+        <f>C55+I54</f>
+        <v>400</v>
+      </c>
+      <c r="J55" s="156">
+        <f>(K54+E55)/I55</f>
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="K55" s="156">
+        <f>I55*J55</f>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="119"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="152"/>
+      <c r="E56" s="152"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="156"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="119"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="153">
+        <v>80</v>
+      </c>
+      <c r="G57" s="154">
+        <v>1.55</v>
+      </c>
+      <c r="H57" s="154">
+        <v>123.6</v>
+      </c>
+      <c r="I57" s="155">
+        <f>I55-F57</f>
+        <v>320</v>
+      </c>
+      <c r="J57" s="156">
+        <v>1.55</v>
+      </c>
+      <c r="K57" s="156">
+        <v>494.4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="119"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="152"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="154"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="119"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="153">
+        <v>140</v>
+      </c>
+      <c r="G59" s="154">
+        <v>1.55</v>
+      </c>
+      <c r="H59" s="154">
+        <v>216.3</v>
+      </c>
+      <c r="I59" s="155">
+        <f>I57-F59</f>
+        <v>180</v>
+      </c>
+      <c r="J59" s="156">
+        <v>1.55</v>
+      </c>
+      <c r="K59" s="156">
+        <v>278.10000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="119"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="154"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="119"/>
+      <c r="C61" s="174">
+        <v>150</v>
+      </c>
+      <c r="D61" s="152">
+        <v>1.6</v>
+      </c>
+      <c r="E61" s="152">
+        <v>240</v>
+      </c>
+      <c r="F61" s="153"/>
+      <c r="G61" s="154"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="155">
+        <v>330</v>
+      </c>
+      <c r="J61" s="156">
+        <f>(K59+E61)/I61</f>
+        <v>1.57</v>
+      </c>
+      <c r="K61" s="156">
+        <v>518.1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="119"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="154"/>
+      <c r="H62" s="154"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="156"/>
+      <c r="K62" s="156"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="119"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="152"/>
+      <c r="E63" s="152"/>
+      <c r="F63" s="153"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="155"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="119"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="152"/>
+      <c r="E64" s="152"/>
+      <c r="F64" s="153">
+        <v>130</v>
+      </c>
+      <c r="G64" s="154">
+        <v>1.57</v>
+      </c>
+      <c r="H64" s="154">
+        <v>204.1</v>
+      </c>
+      <c r="I64" s="155">
+        <v>200</v>
+      </c>
+      <c r="J64" s="156">
+        <v>1.57</v>
+      </c>
+      <c r="K64" s="156">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="119"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="152"/>
+      <c r="E65" s="152"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="155"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="119"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="152"/>
+      <c r="E66" s="152"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="154"/>
+      <c r="H66" s="154"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="119"/>
+      <c r="C67" s="174">
+        <v>150</v>
+      </c>
+      <c r="D67" s="152">
+        <v>1.7</v>
+      </c>
+      <c r="E67" s="152">
+        <v>255</v>
+      </c>
+      <c r="F67" s="153">
+        <v>110</v>
+      </c>
+      <c r="G67" s="154">
+        <v>1.57</v>
+      </c>
+      <c r="H67" s="154">
+        <v>204.1</v>
+      </c>
+      <c r="I67" s="155">
+        <v>90</v>
+      </c>
+      <c r="J67" s="156">
+        <v>1.57</v>
+      </c>
+      <c r="K67" s="156">
+        <v>141.30000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="119"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="154"/>
+      <c r="H68" s="154"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="156"/>
+      <c r="K68" s="156"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="119"/>
+      <c r="C69" s="174"/>
+      <c r="D69" s="152"/>
+      <c r="E69" s="152"/>
+      <c r="F69" s="153"/>
+      <c r="G69" s="154"/>
+      <c r="H69" s="154"/>
+      <c r="I69" s="155"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="156"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="119"/>
+      <c r="C70" s="174"/>
+      <c r="D70" s="175"/>
+      <c r="E70" s="175"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="155">
+        <v>240</v>
+      </c>
+      <c r="J70" s="156">
+        <v>1.65</v>
+      </c>
+      <c r="K70" s="156">
+        <v>396.3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="176"/>
+      <c r="D71" s="177"/>
+      <c r="E71" s="177"/>
+      <c r="F71" s="178"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="180"/>
+      <c r="K71" s="180"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="176"/>
+      <c r="D72" s="177"/>
+      <c r="E72" s="177"/>
+      <c r="F72" s="181">
+        <v>140</v>
+      </c>
+      <c r="G72" s="182">
+        <v>1.65</v>
+      </c>
+      <c r="H72" s="182">
+        <v>231.18</v>
+      </c>
+      <c r="I72" s="155">
+        <v>100</v>
+      </c>
+      <c r="J72" s="180">
+        <v>1.65</v>
+      </c>
+      <c r="K72" s="180">
+        <v>165.13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="176"/>
+      <c r="D73" s="177"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="181"/>
+      <c r="G73" s="182"/>
+      <c r="H73" s="182"/>
+      <c r="I73" s="155"/>
+      <c r="J73" s="180"/>
+      <c r="K73" s="180"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B25:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B50:K51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E13126-599C-477A-9EFD-2C07EFFD3F2F}">
+  <dimension ref="D4:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="268" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="269"/>
+    </row>
+    <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="270" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="271">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="272">
+        <v>190000</v>
+      </c>
+      <c r="G7" s="270" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="273">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="272">
+        <v>740000</v>
+      </c>
+      <c r="G8" s="274" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="275">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="272">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="272">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="274" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="276">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="277" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="278">
+        <f>SUM(E6:E11)</f>
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="277" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="279">
+        <f>E12/H7</f>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="274" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="103">
+        <f>E12/H8</f>
+        <v>1.3416666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B44570-E8FC-44E9-ABB8-65F4EC816421}">
+  <dimension ref="A22:N68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="280"/>
+      <c r="D22" s="280"/>
+      <c r="E22" s="281"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="284"/>
+      <c r="B23" s="285" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="285" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="285" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="285"/>
+      <c r="F23" s="284"/>
+      <c r="G23" s="286" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="286"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="284"/>
+      <c r="K23" s="286" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="286"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="284"/>
+      <c r="B24" s="284" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="287">
+        <v>63289.85</v>
+      </c>
+      <c r="D24" s="287"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="284"/>
+      <c r="G24" s="287"/>
+      <c r="H24" s="288">
+        <v>541.66999999999996</v>
+      </c>
+      <c r="I24" s="284" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="289" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="287">
+        <f>H24</f>
+        <v>541.66999999999996</v>
+      </c>
+      <c r="L24" s="288"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="284"/>
+      <c r="B25" s="284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="287">
+        <v>0</v>
+      </c>
+      <c r="D25" s="287"/>
+      <c r="E25" s="287"/>
+      <c r="F25" s="284"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="284"/>
+      <c r="J25" s="284"/>
+      <c r="K25" s="287"/>
+      <c r="L25" s="287"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="284"/>
+      <c r="B26" s="284" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="287">
+        <v>30450</v>
+      </c>
+      <c r="D26" s="287"/>
+      <c r="E26" s="287"/>
+      <c r="F26" s="284"/>
+      <c r="G26" s="286" t="str">
+        <f>B27</f>
+        <v>Seguros pagados por anticipado</v>
+      </c>
+      <c r="H26" s="286"/>
+      <c r="I26" s="284"/>
+      <c r="J26" s="284"/>
+      <c r="K26" s="290" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="290"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="284"/>
+      <c r="B27" s="284" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="287">
+        <v>800</v>
+      </c>
+      <c r="D27" s="287"/>
+      <c r="E27" s="287"/>
+      <c r="F27" s="284"/>
+      <c r="G27" s="284">
+        <f>C27</f>
+        <v>800</v>
+      </c>
+      <c r="H27" s="288">
+        <v>22.22</v>
+      </c>
+      <c r="I27" s="284" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="289" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="284">
+        <f>H27</f>
+        <v>22.22</v>
+      </c>
+      <c r="L27" s="291"/>
+      <c r="N27" s="100"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="284"/>
+      <c r="B28" s="284" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="287">
+        <v>15000</v>
+      </c>
+      <c r="D28" s="287"/>
+      <c r="E28" s="287"/>
+      <c r="F28" s="284"/>
+      <c r="G28" s="292">
+        <f>G27-H27</f>
+        <v>777.78</v>
+      </c>
+      <c r="H28" s="293"/>
+      <c r="I28" s="284"/>
+      <c r="J28" s="284"/>
+      <c r="K28" s="284"/>
+      <c r="L28" s="284"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="284"/>
+      <c r="B29" s="284" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="287">
+        <v>30000</v>
+      </c>
+      <c r="D29" s="287"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="284"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="284"/>
+      <c r="J29" s="284"/>
+      <c r="K29" s="284"/>
+      <c r="L29" s="284"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="284"/>
+      <c r="B30" s="284" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="287">
+        <v>7741.5</v>
+      </c>
+      <c r="D30" s="287"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="284"/>
+      <c r="G30" s="286" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="286"/>
+      <c r="I30" s="284"/>
+      <c r="J30" s="284"/>
+      <c r="K30" s="286" t="s">
+        <v>137</v>
+      </c>
+      <c r="L30" s="286"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="284"/>
+      <c r="B31" s="284" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="287"/>
+      <c r="D31" s="287">
+        <v>2667.6</v>
+      </c>
+      <c r="E31" s="287"/>
+      <c r="F31" s="284"/>
+      <c r="G31" s="284"/>
+      <c r="H31" s="291">
+        <f>(C28)/(10*12)</f>
+        <v>125</v>
+      </c>
+      <c r="I31" s="284" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="289" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="284">
+        <f>H31</f>
+        <v>125</v>
+      </c>
+      <c r="L31" s="291"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="284"/>
+      <c r="B32" s="284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="287"/>
+      <c r="D32" s="287">
+        <v>21893.75</v>
+      </c>
+      <c r="E32" s="287"/>
+      <c r="F32" s="284"/>
+      <c r="G32" s="284"/>
+      <c r="H32" s="284"/>
+      <c r="I32" s="284"/>
+      <c r="J32" s="284"/>
+      <c r="K32" s="284"/>
+      <c r="L32" s="284"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="284"/>
+      <c r="B33" s="284" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287">
+        <v>80000</v>
+      </c>
+      <c r="E33" s="287"/>
+      <c r="F33" s="284"/>
+      <c r="G33" s="294" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="284">
+        <f>K24+K27+K31</f>
+        <v>688.89</v>
+      </c>
+      <c r="I33" s="284"/>
+      <c r="J33" s="284"/>
+      <c r="K33" s="284"/>
+      <c r="L33" s="284"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="284"/>
+      <c r="B34" s="284" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287">
+        <v>50000</v>
+      </c>
+      <c r="E34" s="287"/>
+      <c r="F34" s="284"/>
+      <c r="G34" s="284"/>
+      <c r="H34" s="284"/>
+      <c r="I34" s="284"/>
+      <c r="J34" s="284"/>
+      <c r="K34" s="284"/>
+      <c r="L34" s="284"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="284"/>
+      <c r="B35" s="284" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="287"/>
+      <c r="D35" s="287">
+        <v>21000</v>
+      </c>
+      <c r="E35" s="287"/>
+      <c r="F35" s="284"/>
+      <c r="G35" s="284"/>
+      <c r="H35" s="284"/>
+      <c r="I35" s="284"/>
+      <c r="J35" s="284"/>
+      <c r="K35" s="284"/>
+      <c r="L35" s="284"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="284"/>
+      <c r="B36" s="284" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="287">
+        <v>13300</v>
+      </c>
+      <c r="D36" s="287"/>
+      <c r="E36" s="287"/>
+      <c r="F36" s="284"/>
+      <c r="G36" s="284"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="284"/>
+      <c r="J36" s="284"/>
+      <c r="K36" s="284"/>
+      <c r="L36" s="284"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="284"/>
+      <c r="B37" s="284" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="287">
+        <v>1500</v>
+      </c>
+      <c r="D37" s="287"/>
+      <c r="E37" s="287"/>
+      <c r="F37" s="284"/>
+      <c r="G37" s="284"/>
+      <c r="H37" s="284"/>
+      <c r="I37" s="284"/>
+      <c r="J37" s="284"/>
+      <c r="K37" s="284"/>
+      <c r="L37" s="284"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="284"/>
+      <c r="B38" s="284" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="287">
+        <v>8000</v>
+      </c>
+      <c r="D38" s="287"/>
+      <c r="E38" s="287"/>
+      <c r="F38" s="284"/>
+      <c r="G38" s="284"/>
+      <c r="H38" s="284"/>
+      <c r="I38" s="284"/>
+      <c r="J38" s="284"/>
+      <c r="K38" s="284"/>
+      <c r="L38" s="284"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="284"/>
+      <c r="B39" s="284" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="287">
+        <v>480</v>
+      </c>
+      <c r="D39" s="287"/>
+      <c r="E39" s="287"/>
+      <c r="F39" s="284"/>
+      <c r="G39" s="284"/>
+      <c r="H39" s="284"/>
+      <c r="I39" s="284"/>
+      <c r="J39" s="284"/>
+      <c r="K39" s="284"/>
+      <c r="L39" s="284"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="284"/>
+      <c r="B40" s="284" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="287">
+        <v>5000</v>
+      </c>
+      <c r="D40" s="287"/>
+      <c r="E40" s="287"/>
+      <c r="F40" s="284"/>
+      <c r="G40" s="284"/>
+      <c r="H40" s="284"/>
+      <c r="I40" s="284"/>
+      <c r="J40" s="284"/>
+      <c r="K40" s="284"/>
+      <c r="L40" s="284"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="284"/>
+      <c r="B41" s="294" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="294">
+        <f>SUM(C24:C40)</f>
+        <v>175561.35</v>
+      </c>
+      <c r="D41" s="294">
+        <f>SUM(D24:D40)</f>
+        <v>175561.35</v>
+      </c>
+      <c r="E41" s="294"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="284"/>
+      <c r="H41" s="284"/>
+      <c r="I41" s="284"/>
+      <c r="J41" s="284"/>
+      <c r="K41" s="284"/>
+      <c r="L41" s="284"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="284"/>
+      <c r="B42" s="284"/>
+      <c r="C42" s="284"/>
+      <c r="D42" s="284"/>
+      <c r="E42" s="284"/>
+      <c r="F42" s="284"/>
+      <c r="G42" s="284"/>
+      <c r="H42" s="284"/>
+      <c r="I42" s="284"/>
+      <c r="J42" s="284"/>
+      <c r="K42" s="284"/>
+      <c r="L42" s="284"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="284"/>
+      <c r="B43" s="284"/>
+      <c r="C43" s="284"/>
+      <c r="D43" s="284"/>
+      <c r="E43" s="284"/>
+      <c r="F43" s="284"/>
+      <c r="G43" s="284"/>
+      <c r="H43" s="284"/>
+      <c r="I43" s="284"/>
+      <c r="J43" s="284"/>
+      <c r="K43" s="284"/>
+      <c r="L43" s="284"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="284"/>
+      <c r="B44" s="295" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="295"/>
+      <c r="D44" s="295"/>
+      <c r="E44" s="284"/>
+      <c r="F44" s="284"/>
+      <c r="G44" s="284"/>
+      <c r="H44" s="284"/>
+      <c r="I44" s="284"/>
+      <c r="J44" s="284"/>
+      <c r="K44" s="284"/>
+      <c r="L44" s="284"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="284"/>
+      <c r="B45" s="296" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="296" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="296" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="284"/>
+      <c r="F45" s="284"/>
+      <c r="G45" s="284"/>
+      <c r="H45" s="284"/>
+      <c r="I45" s="284"/>
+      <c r="J45" s="284"/>
+      <c r="K45" s="284"/>
+      <c r="L45" s="284"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="284"/>
+      <c r="B46" s="297" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="298">
+        <v>63289.85</v>
+      </c>
+      <c r="D46" s="298"/>
+      <c r="E46" s="284"/>
+      <c r="F46" s="284"/>
+      <c r="G46" s="284"/>
+      <c r="H46" s="284"/>
+      <c r="I46" s="284"/>
+      <c r="J46" s="284"/>
+      <c r="K46" s="284"/>
+      <c r="L46" s="284"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="284"/>
+      <c r="B47" s="297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="298">
+        <v>0</v>
+      </c>
+      <c r="D47" s="298"/>
+      <c r="E47" s="284"/>
+      <c r="F47" s="284"/>
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="284"/>
+      <c r="K47" s="284"/>
+      <c r="L47" s="284"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="284"/>
+      <c r="B48" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="298">
+        <v>30450</v>
+      </c>
+      <c r="D48" s="298"/>
+      <c r="E48" s="284"/>
+      <c r="F48" s="284"/>
+      <c r="G48" s="284"/>
+      <c r="H48" s="284"/>
+      <c r="I48" s="284"/>
+      <c r="J48" s="284"/>
+      <c r="K48" s="284"/>
+      <c r="L48" s="284"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="284"/>
+      <c r="B49" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="298">
+        <f>G28</f>
+        <v>777.78</v>
+      </c>
+      <c r="D49" s="298"/>
+      <c r="E49" s="284"/>
+      <c r="F49" s="284"/>
+      <c r="G49" s="284"/>
+      <c r="H49" s="284"/>
+      <c r="I49" s="284"/>
+      <c r="J49" s="284"/>
+      <c r="K49" s="284"/>
+      <c r="L49" s="284"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="284"/>
+      <c r="B50" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="298">
+        <v>15000</v>
+      </c>
+      <c r="D50" s="298"/>
+      <c r="E50" s="284"/>
+      <c r="F50" s="284"/>
+      <c r="G50" s="284"/>
+      <c r="H50" s="284"/>
+      <c r="I50" s="284"/>
+      <c r="J50" s="284"/>
+      <c r="K50" s="284"/>
+      <c r="L50" s="284"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="284"/>
+      <c r="B51" s="297" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="298">
+        <v>30000</v>
+      </c>
+      <c r="D51" s="298"/>
+      <c r="E51" s="284"/>
+      <c r="F51" s="284"/>
+      <c r="G51" s="284"/>
+      <c r="H51" s="284"/>
+      <c r="I51" s="284"/>
+      <c r="J51" s="284"/>
+      <c r="K51" s="284"/>
+      <c r="L51" s="284"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="284"/>
+      <c r="B52" s="297" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="298">
+        <v>7741.5</v>
+      </c>
+      <c r="D52" s="298"/>
+      <c r="E52" s="284"/>
+      <c r="F52" s="284"/>
+      <c r="G52" s="284"/>
+      <c r="H52" s="284"/>
+      <c r="I52" s="284"/>
+      <c r="J52" s="284"/>
+      <c r="K52" s="284"/>
+      <c r="L52" s="284"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="284"/>
+      <c r="B53" s="297" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="298"/>
+      <c r="D53" s="298">
+        <v>2667.6</v>
+      </c>
+      <c r="E53" s="284"/>
+      <c r="F53" s="284"/>
+      <c r="G53" s="284"/>
+      <c r="H53" s="284"/>
+      <c r="I53" s="284"/>
+      <c r="J53" s="284"/>
+      <c r="K53" s="284"/>
+      <c r="L53" s="284"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="284"/>
+      <c r="B54" s="297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="298"/>
+      <c r="D54" s="298">
+        <v>21893.75</v>
+      </c>
+      <c r="E54" s="284"/>
+      <c r="F54" s="284"/>
+      <c r="G54" s="284"/>
+      <c r="H54" s="284"/>
+      <c r="I54" s="284"/>
+      <c r="J54" s="284"/>
+      <c r="K54" s="284"/>
+      <c r="L54" s="284"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="284"/>
+      <c r="B55" s="297" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="298"/>
+      <c r="D55" s="298">
+        <v>80000</v>
+      </c>
+      <c r="E55" s="284"/>
+      <c r="F55" s="284"/>
+      <c r="G55" s="284"/>
+      <c r="H55" s="284"/>
+      <c r="I55" s="284"/>
+      <c r="J55" s="284"/>
+      <c r="K55" s="284"/>
+      <c r="L55" s="284"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="284"/>
+      <c r="B56" s="297" t="str">
+        <f>G23</f>
+        <v>Interes por pagar</v>
+      </c>
+      <c r="C56" s="298"/>
+      <c r="D56" s="298">
+        <f>H24</f>
+        <v>541.66999999999996</v>
+      </c>
+      <c r="E56" s="284"/>
+      <c r="F56" s="284"/>
+      <c r="G56" s="284"/>
+      <c r="H56" s="284"/>
+      <c r="I56" s="284"/>
+      <c r="J56" s="284"/>
+      <c r="K56" s="284"/>
+      <c r="L56" s="284"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="284"/>
+      <c r="B57" s="297" t="str">
+        <f>G30</f>
+        <v>Depreciación acumulada mobiliario</v>
+      </c>
+      <c r="C57" s="298"/>
+      <c r="D57" s="298">
+        <f>H31</f>
+        <v>125</v>
+      </c>
+      <c r="E57" s="284"/>
+      <c r="F57" s="284"/>
+      <c r="G57" s="284"/>
+      <c r="H57" s="284"/>
+      <c r="I57" s="284"/>
+      <c r="J57" s="284"/>
+      <c r="K57" s="284"/>
+      <c r="L57" s="284"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="284"/>
+      <c r="B58" s="297" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="298"/>
+      <c r="D58" s="298">
+        <v>50000</v>
+      </c>
+      <c r="E58" s="284"/>
+      <c r="F58" s="284"/>
+      <c r="G58" s="284"/>
+      <c r="H58" s="284"/>
+      <c r="I58" s="284"/>
+      <c r="J58" s="284"/>
+      <c r="K58" s="284"/>
+      <c r="L58" s="284"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="284"/>
+      <c r="B59" s="297" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="298"/>
+      <c r="D59" s="298">
+        <v>21000</v>
+      </c>
+      <c r="E59" s="284"/>
+      <c r="F59" s="284"/>
+      <c r="G59" s="284"/>
+      <c r="H59" s="284"/>
+      <c r="I59" s="284"/>
+      <c r="J59" s="284"/>
+      <c r="K59" s="284"/>
+      <c r="L59" s="284"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="284"/>
+      <c r="B60" s="297" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="298">
+        <v>13300</v>
+      </c>
+      <c r="D60" s="298"/>
+      <c r="E60" s="284"/>
+      <c r="F60" s="284"/>
+      <c r="G60" s="284"/>
+      <c r="H60" s="284"/>
+      <c r="I60" s="284"/>
+      <c r="J60" s="284"/>
+      <c r="K60" s="284"/>
+      <c r="L60" s="284"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="284"/>
+      <c r="B61" s="297" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="298">
+        <v>1500</v>
+      </c>
+      <c r="D61" s="298"/>
+      <c r="E61" s="284"/>
+      <c r="F61" s="284"/>
+      <c r="G61" s="284"/>
+      <c r="H61" s="284"/>
+      <c r="I61" s="284"/>
+      <c r="J61" s="284"/>
+      <c r="K61" s="284"/>
+      <c r="L61" s="284"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="284"/>
+      <c r="B62" s="297" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="298">
+        <v>8000</v>
+      </c>
+      <c r="D62" s="298"/>
+      <c r="E62" s="284"/>
+      <c r="F62" s="284"/>
+      <c r="G62" s="284"/>
+      <c r="H62" s="284"/>
+      <c r="I62" s="284"/>
+      <c r="J62" s="284"/>
+      <c r="K62" s="284"/>
+      <c r="L62" s="284"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="284"/>
+      <c r="B63" s="297" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="298">
+        <v>480</v>
+      </c>
+      <c r="D63" s="298"/>
+      <c r="E63" s="284"/>
+      <c r="F63" s="284"/>
+      <c r="G63" s="284"/>
+      <c r="H63" s="284"/>
+      <c r="I63" s="284"/>
+      <c r="J63" s="284"/>
+      <c r="K63" s="284"/>
+      <c r="L63" s="284"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="284"/>
+      <c r="B64" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="298">
+        <v>5000</v>
+      </c>
+      <c r="D64" s="298"/>
+      <c r="E64" s="284"/>
+      <c r="F64" s="284"/>
+      <c r="G64" s="284"/>
+      <c r="H64" s="284"/>
+      <c r="I64" s="284"/>
+      <c r="J64" s="284"/>
+      <c r="K64" s="284"/>
+      <c r="L64" s="284"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="284"/>
+      <c r="B65" s="297" t="str">
+        <f>K23</f>
+        <v>Gastos por intereses</v>
+      </c>
+      <c r="C65" s="298">
+        <f>K24</f>
+        <v>541.66999999999996</v>
+      </c>
+      <c r="D65" s="298"/>
+      <c r="E65" s="284"/>
+      <c r="F65" s="284"/>
+      <c r="G65" s="284"/>
+      <c r="H65" s="284"/>
+      <c r="I65" s="284"/>
+      <c r="J65" s="284"/>
+      <c r="K65" s="284"/>
+      <c r="L65" s="284"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="284"/>
+      <c r="B66" s="297" t="str">
+        <f>K26</f>
+        <v>Gastos por seguro</v>
+      </c>
+      <c r="C66" s="298">
+        <f>K27</f>
+        <v>22.22</v>
+      </c>
+      <c r="D66" s="298"/>
+      <c r="E66" s="284"/>
+      <c r="F66" s="284"/>
+      <c r="G66" s="284"/>
+      <c r="H66" s="284"/>
+      <c r="I66" s="284"/>
+      <c r="J66" s="284"/>
+      <c r="K66" s="284"/>
+      <c r="L66" s="284"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="284"/>
+      <c r="B67" s="297" t="str">
+        <f>K30</f>
+        <v>Gastos por depreciación de mobiliario</v>
+      </c>
+      <c r="C67" s="298">
+        <f>K31</f>
+        <v>125</v>
+      </c>
+      <c r="D67" s="298"/>
+      <c r="E67" s="284"/>
+      <c r="F67" s="284"/>
+      <c r="G67" s="284"/>
+      <c r="H67" s="284"/>
+      <c r="I67" s="284"/>
+      <c r="J67" s="284"/>
+      <c r="K67" s="284"/>
+      <c r="L67" s="284"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="282" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="283">
+        <f>SUM(C46:C67)</f>
+        <v>176228.02000000002</v>
+      </c>
+      <c r="D68" s="283">
+        <f>SUM(D46:D67)</f>
+        <v>176228.02000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB62647-C613-4D81-A3B4-375D86C75950}">
+  <dimension ref="C2:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="299" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+    </row>
+    <row r="3" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="299" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+    </row>
+    <row r="4" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="300" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="300"/>
+      <c r="G4" s="300"/>
+      <c r="H4" s="300"/>
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300"/>
+      <c r="L4" s="300"/>
+      <c r="M4" s="300"/>
+      <c r="N4" s="300"/>
+      <c r="O4" s="300"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="301" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="302" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="302"/>
+      <c r="H5" s="302" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="302"/>
+      <c r="J5" s="302" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="302"/>
+      <c r="L5" s="302" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="302"/>
+      <c r="N5" s="302" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" s="302"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="301"/>
+      <c r="D6" s="303" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="296" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="303" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="296" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="303" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="296" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="303" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="296" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="303" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="296" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="303" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="297" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="298">
+        <v>63289.85</v>
+      </c>
+      <c r="E7" s="298"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="297"/>
+      <c r="H7" s="298">
+        <v>63289.85</v>
+      </c>
+      <c r="I7" s="298"/>
+      <c r="J7" s="297"/>
+      <c r="K7" s="297"/>
+      <c r="L7" s="297"/>
+      <c r="M7" s="297"/>
+      <c r="N7" s="297">
+        <f>H7</f>
+        <v>63289.85</v>
+      </c>
+      <c r="O7" s="297"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="297" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="298">
+        <v>0</v>
+      </c>
+      <c r="E8" s="298"/>
+      <c r="F8" s="297"/>
+      <c r="G8" s="297"/>
+      <c r="H8" s="298">
+        <v>0</v>
+      </c>
+      <c r="I8" s="298"/>
+      <c r="J8" s="297"/>
+      <c r="K8" s="297"/>
+      <c r="L8" s="297"/>
+      <c r="M8" s="297"/>
+      <c r="N8" s="297">
+        <f t="shared" ref="N8:N13" si="0">H8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="297"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="298">
+        <v>30450</v>
+      </c>
+      <c r="E9" s="298"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="297"/>
+      <c r="H9" s="298">
+        <v>30450</v>
+      </c>
+      <c r="I9" s="298"/>
+      <c r="J9" s="297"/>
+      <c r="K9" s="297"/>
+      <c r="L9" s="297"/>
+      <c r="M9" s="297"/>
+      <c r="N9" s="297">
+        <f t="shared" si="0"/>
+        <v>30450</v>
+      </c>
+      <c r="O9" s="297"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="298">
+        <v>800</v>
+      </c>
+      <c r="E10" s="298"/>
+      <c r="F10" s="297"/>
+      <c r="G10" s="298">
+        <v>22.22</v>
+      </c>
+      <c r="H10" s="304">
+        <v>777.78</v>
+      </c>
+      <c r="I10" s="304"/>
+      <c r="J10" s="305"/>
+      <c r="K10" s="297"/>
+      <c r="L10" s="297"/>
+      <c r="M10" s="297"/>
+      <c r="N10" s="297">
+        <f t="shared" si="0"/>
+        <v>777.78</v>
+      </c>
+      <c r="O10" s="297"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="298">
+        <v>15000</v>
+      </c>
+      <c r="E11" s="298"/>
+      <c r="F11" s="297"/>
+      <c r="G11" s="297"/>
+      <c r="H11" s="298">
+        <v>15000</v>
+      </c>
+      <c r="I11" s="298"/>
+      <c r="J11" s="297"/>
+      <c r="K11" s="297"/>
+      <c r="L11" s="297"/>
+      <c r="M11" s="297"/>
+      <c r="N11" s="297">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="O11" s="297"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="297" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="298">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="298"/>
+      <c r="F12" s="297"/>
+      <c r="G12" s="297"/>
+      <c r="H12" s="298">
+        <v>30000</v>
+      </c>
+      <c r="I12" s="298"/>
+      <c r="J12" s="297"/>
+      <c r="K12" s="297"/>
+      <c r="L12" s="297"/>
+      <c r="M12" s="297"/>
+      <c r="N12" s="297">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="O12" s="297"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="297" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="298">
+        <v>7741.5</v>
+      </c>
+      <c r="E13" s="298"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="298">
+        <v>7741.5</v>
+      </c>
+      <c r="I13" s="298"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="297"/>
+      <c r="M13" s="297"/>
+      <c r="N13" s="297">
+        <f t="shared" si="0"/>
+        <v>7741.5</v>
+      </c>
+      <c r="O13" s="297"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="297" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="298"/>
+      <c r="E14" s="298">
+        <v>2667.6</v>
+      </c>
+      <c r="F14" s="297"/>
+      <c r="G14" s="297"/>
+      <c r="H14" s="298"/>
+      <c r="I14" s="298">
+        <v>2667.6</v>
+      </c>
+      <c r="J14" s="297"/>
+      <c r="K14" s="297"/>
+      <c r="L14" s="297"/>
+      <c r="M14" s="297"/>
+      <c r="N14" s="297"/>
+      <c r="O14" s="297">
+        <f>I14</f>
+        <v>2667.6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298">
+        <v>21893.75</v>
+      </c>
+      <c r="F15" s="297"/>
+      <c r="G15" s="297"/>
+      <c r="H15" s="298"/>
+      <c r="I15" s="298">
+        <v>21893.75</v>
+      </c>
+      <c r="J15" s="297"/>
+      <c r="K15" s="297"/>
+      <c r="L15" s="297"/>
+      <c r="M15" s="297"/>
+      <c r="N15" s="297"/>
+      <c r="O15" s="297">
+        <f t="shared" ref="O15:O18" si="1">I15</f>
+        <v>21893.75</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="297" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="298"/>
+      <c r="E16" s="298">
+        <v>80000</v>
+      </c>
+      <c r="F16" s="297"/>
+      <c r="G16" s="297"/>
+      <c r="H16" s="298"/>
+      <c r="I16" s="298">
+        <v>80000</v>
+      </c>
+      <c r="J16" s="297"/>
+      <c r="K16" s="297"/>
+      <c r="L16" s="297"/>
+      <c r="M16" s="297"/>
+      <c r="N16" s="297"/>
+      <c r="O16" s="297">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="297" t="str">
+        <f>[1]Hoja1!H23</f>
+        <v>A1)</v>
+      </c>
+      <c r="D17" s="298"/>
+      <c r="E17" s="298"/>
+      <c r="F17" s="297"/>
+      <c r="G17" s="297">
+        <f>I17</f>
+        <v>541.66999999999996</v>
+      </c>
+      <c r="H17" s="298"/>
+      <c r="I17" s="298">
+        <v>541.66999999999996</v>
+      </c>
+      <c r="J17" s="297"/>
+      <c r="K17" s="297"/>
+      <c r="L17" s="297"/>
+      <c r="M17" s="297"/>
+      <c r="N17" s="297"/>
+      <c r="O17" s="297">
+        <f t="shared" si="1"/>
+        <v>541.66999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="297" t="str">
+        <f>[1]Hoja1!H30</f>
+        <v>A3)</v>
+      </c>
+      <c r="D18" s="298"/>
+      <c r="E18" s="298"/>
+      <c r="F18" s="297"/>
+      <c r="G18" s="297">
+        <f>I18</f>
+        <v>125</v>
+      </c>
+      <c r="H18" s="298"/>
+      <c r="I18" s="298">
+        <v>125</v>
+      </c>
+      <c r="J18" s="297"/>
+      <c r="K18" s="297"/>
+      <c r="L18" s="297"/>
+      <c r="M18" s="297"/>
+      <c r="N18" s="297"/>
+      <c r="O18" s="297">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="297" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298">
+        <v>50000</v>
+      </c>
+      <c r="F19" s="297"/>
+      <c r="G19" s="297"/>
+      <c r="H19" s="298"/>
+      <c r="I19" s="298">
+        <v>50000</v>
+      </c>
+      <c r="J19" s="297"/>
+      <c r="K19" s="297"/>
+      <c r="L19" s="297"/>
+      <c r="M19" s="297">
+        <f>I19</f>
+        <v>50000</v>
+      </c>
+      <c r="N19" s="297"/>
+      <c r="O19" s="297"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="297" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="298"/>
+      <c r="E20" s="298">
+        <v>21000</v>
+      </c>
+      <c r="F20" s="297"/>
+      <c r="G20" s="297"/>
+      <c r="H20" s="298"/>
+      <c r="I20" s="298">
+        <v>21000</v>
+      </c>
+      <c r="J20" s="297"/>
+      <c r="K20" s="297">
+        <f>I20</f>
+        <v>21000</v>
+      </c>
+      <c r="L20" s="297"/>
+      <c r="M20" s="297"/>
+      <c r="N20" s="297"/>
+      <c r="O20" s="297"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="297" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="298">
+        <v>13300</v>
+      </c>
+      <c r="E21" s="298"/>
+      <c r="F21" s="297"/>
+      <c r="G21" s="297"/>
+      <c r="H21" s="298">
+        <v>13300</v>
+      </c>
+      <c r="I21" s="298"/>
+      <c r="J21" s="297">
+        <f>H21</f>
+        <v>13300</v>
+      </c>
+      <c r="K21" s="297"/>
+      <c r="L21" s="297"/>
+      <c r="M21" s="297"/>
+      <c r="N21" s="297"/>
+      <c r="O21" s="297"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="297" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="298">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="298"/>
+      <c r="F22" s="297"/>
+      <c r="G22" s="297"/>
+      <c r="H22" s="298">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="298"/>
+      <c r="J22" s="297">
+        <f t="shared" ref="J22:J28" si="2">H22</f>
+        <v>1500</v>
+      </c>
+      <c r="K22" s="297"/>
+      <c r="L22" s="297"/>
+      <c r="M22" s="297"/>
+      <c r="N22" s="297"/>
+      <c r="O22" s="297"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="297" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="298">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="298"/>
+      <c r="F23" s="297"/>
+      <c r="G23" s="297"/>
+      <c r="H23" s="298">
+        <v>8000</v>
+      </c>
+      <c r="I23" s="298"/>
+      <c r="J23" s="297">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="K23" s="297"/>
+      <c r="L23" s="297"/>
+      <c r="M23" s="297"/>
+      <c r="N23" s="297"/>
+      <c r="O23" s="297"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="297" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="298">
+        <v>480</v>
+      </c>
+      <c r="E24" s="298"/>
+      <c r="F24" s="297"/>
+      <c r="G24" s="297"/>
+      <c r="H24" s="298">
+        <v>480</v>
+      </c>
+      <c r="I24" s="298"/>
+      <c r="J24" s="297">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="K24" s="297"/>
+      <c r="L24" s="297"/>
+      <c r="M24" s="297"/>
+      <c r="N24" s="297"/>
+      <c r="O24" s="297"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="298">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="298"/>
+      <c r="F25" s="297"/>
+      <c r="G25" s="297"/>
+      <c r="H25" s="298">
+        <v>5000</v>
+      </c>
+      <c r="I25" s="298"/>
+      <c r="J25" s="297">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="K25" s="297"/>
+      <c r="L25" s="297"/>
+      <c r="M25" s="297"/>
+      <c r="N25" s="297"/>
+      <c r="O25" s="297"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="297">
+        <f>[1]Hoja1!L23</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="298"/>
+      <c r="E26" s="298"/>
+      <c r="F26" s="297">
+        <f>H26</f>
+        <v>541.66999999999996</v>
+      </c>
+      <c r="G26" s="297"/>
+      <c r="H26" s="298">
+        <v>541.66999999999996</v>
+      </c>
+      <c r="I26" s="298"/>
+      <c r="J26" s="297">
+        <f t="shared" si="2"/>
+        <v>541.66999999999996</v>
+      </c>
+      <c r="K26" s="297"/>
+      <c r="L26" s="297"/>
+      <c r="M26" s="297"/>
+      <c r="N26" s="297"/>
+      <c r="O26" s="297"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="306">
+        <f>[1]Hoja1!L26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="298"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="297">
+        <f t="shared" ref="F27:F28" si="3">H27</f>
+        <v>22.22</v>
+      </c>
+      <c r="G27" s="297"/>
+      <c r="H27" s="298">
+        <v>22.22</v>
+      </c>
+      <c r="I27" s="298"/>
+      <c r="J27" s="297">
+        <f t="shared" si="2"/>
+        <v>22.22</v>
+      </c>
+      <c r="K27" s="297"/>
+      <c r="L27" s="297"/>
+      <c r="M27" s="297"/>
+      <c r="N27" s="297"/>
+      <c r="O27" s="297"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="297">
+        <f>[1]Hoja1!L30</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="298"/>
+      <c r="E28" s="298"/>
+      <c r="F28" s="297">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="G28" s="297"/>
+      <c r="H28" s="298">
+        <v>125</v>
+      </c>
+      <c r="I28" s="298"/>
+      <c r="J28" s="297">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="K28" s="297"/>
+      <c r="L28" s="297"/>
+      <c r="M28" s="297"/>
+      <c r="N28" s="297"/>
+      <c r="O28" s="297"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="297" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="298"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="297"/>
+      <c r="G29" s="297"/>
+      <c r="H29" s="298"/>
+      <c r="I29" s="298"/>
+      <c r="J29" s="307">
+        <f>-K20+SUM(J21:J28)</f>
+        <v>7968.8899999999994</v>
+      </c>
+      <c r="K29" s="297"/>
+      <c r="L29" s="297">
+        <f>J29</f>
+        <v>7968.8899999999994</v>
+      </c>
+      <c r="M29" s="297"/>
+      <c r="N29" s="297"/>
+      <c r="O29" s="297"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="297" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="298"/>
+      <c r="E30" s="298"/>
+      <c r="F30" s="297"/>
+      <c r="G30" s="297"/>
+      <c r="H30" s="298"/>
+      <c r="I30" s="298"/>
+      <c r="J30" s="297"/>
+      <c r="K30" s="297"/>
+      <c r="L30" s="297"/>
+      <c r="M30" s="307">
+        <f>M19-L29</f>
+        <v>42031.11</v>
+      </c>
+      <c r="N30" s="297"/>
+      <c r="O30" s="297">
+        <f>M30</f>
+        <v>42031.11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="308" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="308">
+        <f>SUM(D7:D28)</f>
+        <v>175561.35</v>
+      </c>
+      <c r="E31" s="308">
+        <f>SUM(E7:E28)</f>
+        <v>175561.35</v>
+      </c>
+      <c r="F31" s="308">
+        <f t="shared" ref="F31:I31" si="4">SUM(F7:F28)</f>
+        <v>688.89</v>
+      </c>
+      <c r="G31" s="308">
+        <f t="shared" si="4"/>
+        <v>688.89</v>
+      </c>
+      <c r="H31" s="308">
+        <f t="shared" si="4"/>
+        <v>176228.02000000002</v>
+      </c>
+      <c r="I31" s="308">
+        <f t="shared" si="4"/>
+        <v>176228.02000000002</v>
+      </c>
+      <c r="J31" s="308">
+        <f>SUM(J7:J28)</f>
+        <v>28968.89</v>
+      </c>
+      <c r="K31" s="308">
+        <f t="shared" ref="K31" si="5">SUM(K7:K28)</f>
+        <v>21000</v>
+      </c>
+      <c r="L31" s="308">
+        <f>SUM(L7:L29)</f>
+        <v>7968.8899999999994</v>
+      </c>
+      <c r="M31" s="308">
+        <f t="shared" ref="M31:N31" si="6">SUM(M7:M28)</f>
+        <v>50000</v>
+      </c>
+      <c r="N31" s="308">
+        <f t="shared" si="6"/>
+        <v>147259.13</v>
+      </c>
+      <c r="O31" s="308">
+        <f>SUM(O7:O30)</f>
+        <v>147259.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
